--- a/Data/HouseRectangles.xlsx
+++ b/Data/HouseRectangles.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cardinalnewmanac-my.sharepoint.com/personal/t0078915_cardinalnewman_ac_uk/Documents/Computer Science/NEA/Game1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{FDC4F78D-B307-4693-8C40-E5DDE578CB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C946D541-9E94-4BBE-AF52-B1CD5577845C}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{FDC4F78D-B307-4693-8C40-E5DDE578CB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F5A9D45-93E9-4B1D-AD61-B5D9DF505B69}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{F9B4CAA5-DB4A-40B1-AFC3-0698CE2D996D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{F9B4CAA5-DB4A-40B1-AFC3-0698CE2D996D}"/>
   </bookViews>
   <sheets>
     <sheet name="H1" sheetId="1" r:id="rId1"/>
     <sheet name="H2" sheetId="2" r:id="rId2"/>
-    <sheet name="H4" sheetId="4" r:id="rId3"/>
-    <sheet name="H3" sheetId="3" r:id="rId4"/>
+    <sheet name="H3" sheetId="3" r:id="rId3"/>
+    <sheet name="H4" sheetId="4" r:id="rId4"/>
     <sheet name="H5" sheetId="5" r:id="rId5"/>
     <sheet name="H6" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80A0EA3-CAC5-4C1F-8586-151F66B11120}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BB6D29-1EE7-4507-B043-2CF485278B66}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,10 +476,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-1420</v>
+        <v>-980</v>
       </c>
       <c r="B3">
-        <v>-1035</v>
+        <v>-875</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -492,10 +492,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-980</v>
+        <v>-1420</v>
       </c>
       <c r="B5">
-        <v>-875</v>
+        <v>-1035</v>
       </c>
     </row>
   </sheetData>
@@ -504,11 +504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9BEE4A-BA61-4446-AE2B-CE44DCAF9C26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B743C91B-6B88-4A31-855E-FB69C71A267E}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,34 +523,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>880</v>
+        <v>-310</v>
       </c>
       <c r="B2">
-        <v>-1695</v>
+        <v>-2560</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>880</v>
+        <v>-125</v>
       </c>
       <c r="B3">
-        <v>-2000</v>
+        <v>-2345</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1240</v>
+        <v>-385</v>
       </c>
       <c r="B4">
-        <v>-2000</v>
+        <v>-2195</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1240</v>
+        <v>-565</v>
       </c>
       <c r="B5">
-        <v>-1695</v>
+        <v>-2505</v>
       </c>
     </row>
   </sheetData>
@@ -559,11 +559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B743C91B-6B88-4A31-855E-FB69C71A267E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9BEE4A-BA61-4446-AE2B-CE44DCAF9C26}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B18"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,34 +578,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-310</v>
+        <v>880</v>
       </c>
       <c r="B2">
-        <v>-2560</v>
+        <v>-1695</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-565</v>
+        <v>880</v>
       </c>
       <c r="B3">
-        <v>-2505</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-385</v>
+        <v>1240</v>
       </c>
       <c r="B4">
-        <v>-2195</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-125</v>
+        <v>1240</v>
       </c>
       <c r="B5">
-        <v>-2345</v>
+        <v>-1695</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D64E901-2A0F-4BD2-B810-60B452D4443D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF12F92-F318-434A-A267-A608A6CB3A68}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
